--- a/medicine/Psychotrope/Société_des_brasseries_de_l'Ouest_africain/Société_des_brasseries_de_l'Ouest_africain.xlsx
+++ b/medicine/Psychotrope/Société_des_brasseries_de_l'Ouest_africain/Société_des_brasseries_de_l'Ouest_africain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_brasseries_de_l%27Ouest_africain</t>
+          <t>Société_des_brasseries_de_l'Ouest_africain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Société des Boissons Rafraîchissantes de l'Ouest Africain (SOBOA) est une entreprise sénégalaise qui domine le marché des boissons gazeuses non alcoolisées et alcoolisées, et demeure aujourd'hui la seule brasserie du pays.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_brasseries_de_l%27Ouest_africain</t>
+          <t>Société_des_brasseries_de_l'Ouest_africain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'implantation de la SOBOA à Dakar date de 1929.
 En juin 1966 avec la compagnie hôtelière de l’Ouest Africain. En octobre 1973 avec la Société Dakaroise de Boissons Gazeuses (SODAGA). En 1982 elle absorbe la Société Industrielle des Brasseries du Sénégal (SIBRAS) créée en 1973 par un groupe suisse. En 1990 le groupe BGI devient la propriété du groupe CASTEL, faisant devenir la SOBOA une filiale du groupe CASTEL en 1991. En décembre 1999, la SOBOA devient une Société Anonyme avec Conseil d’Administration et en 2010 elle rachète Africa Investissements Sénégal, producteur de boissons gazeuses : Africa Cola et Quinch.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_des_brasseries_de_l%27Ouest_africain</t>
+          <t>Société_des_brasseries_de_l'Ouest_africain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boissons gazeuses non alcoolisées
-World Cola (formats plastique 30 cL et 100cL et verre consigné 30 cL)
+          <t>Boissons gazeuses non alcoolisées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>World Cola (formats plastique 30 cL et 100cL et verre consigné 30 cL)
 Youzou (formats plastique 30 cL et 100 cL et verre consigné 30 cL)
 Gazelle Limonade (formats plastique 30 cL et 100 cL et verre consigné 33 cL)
 Gazelle Ananas (formats plastique 30 cL et 100 cL et verre consigné 30 cL)
@@ -557,18 +576,120 @@
 Top Orange (formats plastique 30 cL et 100 cL)
 Top Ananas (formats plastique 30 cL )
 Top Tropical (formats plastique 30 cL)
-Vimto (formats plastique 30 cL et 100 cL et verre consigné 30 cL)
-Bières
-Bière La Gazelle (formats verre consigné 33 cL et 63 cL et canette 50 cL)
+Vimto (formats plastique 30 cL et 100 cL et verre consigné 30 cL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Société_des_brasseries_de_l'Ouest_africain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_des_brasseries_de_l%27Ouest_africain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bière La Gazelle (formats verre consigné 33 cL et 63 cL et canette 50 cL)
 Gazelle Chill (format verre consigné 33 cL)
 Flag (formats verre consigné 33 cL et 65 cL et canette 50 cL)
 33 Export (format verre consigné 65 cL)
-Booster Racines (format verre consigné 50 cL)
-Boissons énergisantes
-XXL Energy (format plastique 30 cL et verre consigné 30 cL)
-Malta (format verre consigné 35 cL)
-Vins
-Les vins sont ceux produits par la Maison Castel et sont importés par la SOBOA pour être vendus sur le marché sénégalais.
+Booster Racines (format verre consigné 50 cL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Société_des_brasseries_de_l'Ouest_africain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_des_brasseries_de_l%27Ouest_africain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Boissons énergisantes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>XXL Energy (format plastique 30 cL et verre consigné 30 cL)
+Malta (format verre consigné 35 cL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Société_des_brasseries_de_l'Ouest_africain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_des_brasseries_de_l%27Ouest_africain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins sont ceux produits par la Maison Castel et sont importés par la SOBOA pour être vendus sur le marché sénégalais.
 AOC Découverte : Touraine Sauvignon Blanc, Rosé d'Anjou, Muscadet Sèvre et Maine, Languedoc, Jurançon, Côtes du Rhônes Grenache-Syrah, Côtes de Provence, Bordeaux Sauvignon Blanc, Bordeaux.
 AOC Sélection : Saint-Emilion, Pouilly Fumé, Médoc, Châteauneuf-du-Pape, Chablis.
 Cépages Découverte : Chardonnay, Viognier, Syrah, Sauvignon-Blanc, Pinot Noir, Muscat, Merlot Rosé, Merlot, Grenache, Gewurztraminer, Cabernet Sauvignon.
